--- a/V1.3 exe/data.xlsx
+++ b/V1.3 exe/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\V1.3 exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E182E87E-02CA-43E9-9F45-925A2AC743E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092A347F-D7EA-4F9F-B945-4F2D0364596A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="1164" windowWidth="16548" windowHeight="9420" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ProjectID_ProjectName</t>
   </si>
@@ -77,7 +77,13 @@
     <t>slide_5</t>
   </si>
   <si>
-    <t>4477_NABEEL</t>
+    <t>slide_6</t>
+  </si>
+  <si>
+    <t>Enth parayana</t>
+  </si>
+  <si>
+    <t>1234_AAA</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6037C9E2-E54E-4A09-98C3-32313390912A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,7 +479,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -521,6 +527,17 @@
       </c>
       <c r="D6">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
